--- a/distanceMatrix.xlsx
+++ b/distanceMatrix.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fake_data.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="prueba2" sheetId="2" r:id="rId2"/>
+    <sheet name="apache-intersection" sheetId="1" r:id="rId1"/>
+    <sheet name="Http intersection" sheetId="2" r:id="rId2"/>
+    <sheet name="apache-nointersection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
   <si>
     <t>orig</t>
   </si>
@@ -95,6 +96,60 @@
   </si>
   <si>
     <t>ful1orig</t>
+  </si>
+  <si>
+    <t>orig full SpearmanrResult(correlation=0.6542290487981466, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>orig full2 SpearmanrResult(correlation=0.2989992493043197, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>orig full3 SpearmanrResult(correlation=0.10480632916553757, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>orig slight SpearmanrResult(correlation=0.8034626808745661, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>orig slight2 SpearmanrResult(correlation=0.804502384534624, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>orig slight3 SpearmanrResult(correlation=0.8024843861966179, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full full2 SpearmanrResult(correlation=0.40858245068075544, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full full3 SpearmanrResult(correlation=0.12288198343418762, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full slight SpearmanrResult(correlation=0.7592826370668705, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full slight2 SpearmanrResult(correlation=0.7593490865746555, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full slight3 SpearmanrResult(correlation=0.7588491678637946, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full2 full3 SpearmanrResult(correlation=0.9449208798356576, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full2 slight SpearmanrResult(correlation=0.47535408656853695, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full2 slight2 SpearmanrResult(correlation=0.477318018377869, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>full2 slight3 SpearmanrResult(correlation=0.47706974395335644, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>s1s2</t>
+  </si>
+  <si>
+    <t>s1f1</t>
+  </si>
+  <si>
+    <t>f1s2</t>
   </si>
 </sst>
 </file>
@@ -169,7 +224,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -231,8 +286,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -240,8 +297,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -272,6 +330,7 @@
     <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -302,6 +361,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -642,10 +702,10 @@
     <col min="3" max="9" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:14">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -668,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +754,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -718,7 +778,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -740,7 +800,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -760,7 +820,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -778,7 +838,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -793,8 +853,18 @@
       <c r="I8" s="1">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N8">
+        <f>1-M8</f>
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -807,8 +877,30 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <v>0.34</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N10" si="0">1-M9</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>0.48575000000000002</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.51424999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -816,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -825,7 +917,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -834,7 +926,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -843,7 +935,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1733,4 +1825,99 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/distanceMatrix.xlsx
+++ b/distanceMatrix.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="apache-intersection" sheetId="1" r:id="rId1"/>
     <sheet name="Http intersection" sheetId="2" r:id="rId2"/>
     <sheet name="apache-nointersection" sheetId="3" r:id="rId3"/>
+    <sheet name="Simulation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t>orig</t>
   </si>
@@ -150,6 +151,33 @@
   </si>
   <si>
     <t>f1s2</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>ProbBilr</t>
+  </si>
+  <si>
+    <t>structNoc</t>
+  </si>
+  <si>
+    <t>Full1</t>
+  </si>
+  <si>
+    <t>Full2</t>
+  </si>
+  <si>
+    <t>Full3</t>
+  </si>
+  <si>
+    <t>Percentage of success (divergence)</t>
+  </si>
+  <si>
+    <t>Average similarity between variants</t>
+  </si>
+  <si>
+    <t>Average similarity to original</t>
   </si>
 </sst>
 </file>
@@ -224,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -288,8 +316,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,8 +330,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="67">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -331,6 +366,8 @@
     <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -362,11 +399,541 @@
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Efectiveness of some similarity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> metric</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t>Fake data</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0950315842049594"/>
+          <c:y val="0.180952380952381"/>
+          <c:w val="0.551723469267834"/>
+          <c:h val="0.710409488287648"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simulation!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average similarity to original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>prob</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>struct</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>full1</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simulation!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simulation!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simulation!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average similarity between variants</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>struct</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>prob</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0242537313432836"/>
+                  <c:y val="-0.0050125313283208"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>full2</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="es-ES"/>
+                      <a:t>full3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simulation!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simulation!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2097572376"/>
+        <c:axId val="2097569208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2097572376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2097569208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2097569208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>% Divergence</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> Success on  x attack </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2097572376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -988,7 +1555,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1832,7 +2399,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1920,4 +2487,151 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:7" ht="60">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.7</v>
+      </c>
+      <c r="F4">
+        <f>1-D4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="0">1-E4</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="1">1-D5</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>